--- a/artfynd/A 145-2026 artfynd.xlsx
+++ b/artfynd/A 145-2026 artfynd.xlsx
@@ -786,7 +786,7 @@
         <v>113570405</v>
       </c>
       <c r="B3" t="n">
-        <v>97877</v>
+        <v>97881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 145-2026 artfynd.xlsx
+++ b/artfynd/A 145-2026 artfynd.xlsx
@@ -786,7 +786,7 @@
         <v>113570405</v>
       </c>
       <c r="B3" t="n">
-        <v>97881</v>
+        <v>97882</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 145-2026 artfynd.xlsx
+++ b/artfynd/A 145-2026 artfynd.xlsx
@@ -786,7 +786,7 @@
         <v>113570405</v>
       </c>
       <c r="B3" t="n">
-        <v>97882</v>
+        <v>97883</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 145-2026 artfynd.xlsx
+++ b/artfynd/A 145-2026 artfynd.xlsx
@@ -786,7 +786,7 @@
         <v>113570405</v>
       </c>
       <c r="B3" t="n">
-        <v>97883</v>
+        <v>97886</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
